--- a/curva.xlsx
+++ b/curva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauro.telles\Desktop\Mesa_app_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4950CA-6A4B-4AB3-AB7C-D577D38CC7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17A0A00-51A1-42C2-868D-5DF616AD6558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{D7672F59-E4F1-4796-A161-9B27CE548715}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,8 +70,127 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,8 +203,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -108,11 +400,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -126,12 +566,59 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259DCC43-C693-47D5-AE91-35A14EFDA691}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,6 +1156,62 @@
         <v>4.9603999999999999</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>1638</v>
+      </c>
+      <c r="B19" s="6">
+        <v>5.5949</v>
+      </c>
+      <c r="C19" s="6">
+        <v>10.8736</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4.9989999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>1764</v>
+      </c>
+      <c r="B20" s="6">
+        <v>5.6108000000000002</v>
+      </c>
+      <c r="C20" s="6">
+        <v>10.936199999999999</v>
+      </c>
+      <c r="D20" s="6">
+        <v>5.0423999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>1890</v>
+      </c>
+      <c r="B21" s="6">
+        <v>5.6256000000000004</v>
+      </c>
+      <c r="C21" s="6">
+        <v>10.991</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5.0796000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B22" s="6">
+        <v>5.6393000000000004</v>
+      </c>
+      <c r="C22" s="6">
+        <v>11.039099999999999</v>
+      </c>
+      <c r="D22" s="6">
+        <v>5.1115000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
